--- a/state_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
+++ b/state_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U207"/>
+  <dimension ref="A1:U227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.10576</v>
+        <v>2.2171</v>
       </c>
       <c r="G10" t="n">
-        <v>2.58178290513177</v>
+        <v>2.58814166337763</v>
       </c>
       <c r="H10" t="n">
-        <v>9.508868482674041</v>
+        <v>9.988026750645069</v>
       </c>
       <c r="I10" t="n">
-        <v>6.72141</v>
+        <v>6.38771</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1267,7 +1267,7 @@
         <v>4.2</v>
       </c>
       <c r="N10" t="n">
-        <v>5.212</v>
+        <v>5.17022</v>
       </c>
       <c r="O10" t="n">
         <v>1822322</v>
@@ -1331,7 +1331,7 @@
         <v>0.007</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006884842246154</v>
+        <v>0.0068929584850597</v>
       </c>
       <c r="H11" t="n">
         <v>0.014</v>
@@ -1412,7 +1412,7 @@
         <v>0.007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006884842246154</v>
+        <v>0.0068929584850597</v>
       </c>
       <c r="H12" t="n">
         <v>0.014</v>
@@ -1910,7 +1910,7 @@
         <v>0.00313</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0069315803221735</v>
+        <v>0.006940763521534</v>
       </c>
       <c r="H18" t="n">
         <v>0.05124860528851</v>
@@ -1991,7 +1991,7 @@
         <v>0.00313</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0069315803221735</v>
+        <v>0.006940763521534</v>
       </c>
       <c r="H19" t="n">
         <v>0.05124860528851</v>
@@ -2072,7 +2072,7 @@
         <v>0.161</v>
       </c>
       <c r="G20" t="n">
-        <v>0.161196552623065</v>
+        <v>0.161190599246998</v>
       </c>
       <c r="H20" t="n">
         <v>0.48</v>
@@ -2153,7 +2153,7 @@
         <v>0.161</v>
       </c>
       <c r="G21" t="n">
-        <v>0.161196552623065</v>
+        <v>0.161190599246998</v>
       </c>
       <c r="H21" t="n">
         <v>0.48</v>
@@ -2227,16 +2227,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.176</v>
+        <v>0.1755</v>
       </c>
       <c r="G22" t="n">
-        <v>0.181542372881356</v>
+        <v>0.181532203389831</v>
       </c>
       <c r="H22" t="n">
         <v>0.506</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3764</v>
+        <v>0.37612</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -2304,16 +2304,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.176</v>
+        <v>0.1755</v>
       </c>
       <c r="G23" t="n">
-        <v>0.181542372881356</v>
+        <v>0.181532203389831</v>
       </c>
       <c r="H23" t="n">
         <v>0.506</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3764</v>
+        <v>0.37612</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2538,7 +2538,7 @@
         <v>0.017</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0234827509007049</v>
+        <v>0.0234779236102428</v>
       </c>
       <c r="H26" t="n">
         <v>0.204</v>
@@ -2615,7 +2615,7 @@
         <v>0.017</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0234827509007049</v>
+        <v>0.0234779236102428</v>
       </c>
       <c r="H27" t="n">
         <v>0.204</v>
@@ -2773,13 +2773,13 @@
         <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.78632766797749</v>
+        <v>2.79281110775758</v>
       </c>
       <c r="H29" t="n">
-        <v>9.508868482674041</v>
+        <v>9.988026750645069</v>
       </c>
       <c r="I29" t="n">
-        <v>6.73926</v>
+        <v>6.39386</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -2790,7 +2790,7 @@
         <v>4.466</v>
       </c>
       <c r="N29" t="n">
-        <v>5.472</v>
+        <v>5.42038</v>
       </c>
       <c r="O29" t="n">
         <v>1822322</v>
@@ -2854,7 +2854,7 @@
         <v>0.007</v>
       </c>
       <c r="G30" t="n">
-        <v>0.007471146674255</v>
+        <v>0.00747705901102</v>
       </c>
       <c r="H30" t="n">
         <v>0.022</v>
@@ -2935,7 +2935,7 @@
         <v>0.007</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007471146674255</v>
+        <v>0.00747705901102</v>
       </c>
       <c r="H31" t="n">
         <v>0.022</v>
@@ -3433,7 +3433,7 @@
         <v>0.00322</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0076470910648284</v>
+        <v>0.0076541069438512</v>
       </c>
       <c r="H37" t="n">
         <v>0.05124860528851</v>
@@ -3514,7 +3514,7 @@
         <v>0.00322</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0076470910648284</v>
+        <v>0.0076541069438512</v>
       </c>
       <c r="H38" t="n">
         <v>0.05124860528851</v>
@@ -3595,7 +3595,7 @@
         <v>0.156</v>
       </c>
       <c r="G39" t="n">
-        <v>0.14859199374836</v>
+        <v>0.148586948514405</v>
       </c>
       <c r="H39" t="n">
         <v>0.48</v>
@@ -3676,7 +3676,7 @@
         <v>0.156</v>
       </c>
       <c r="G40" t="n">
-        <v>0.14859199374836</v>
+        <v>0.148586948514405</v>
       </c>
       <c r="H40" t="n">
         <v>0.48</v>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.162</v>
+        <v>0.1625</v>
       </c>
       <c r="G42" t="n">
-        <v>0.160254237288136</v>
+        <v>0.160227118644068</v>
       </c>
       <c r="H42" t="n">
         <v>0.506</v>
@@ -3841,13 +3841,13 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.0505</v>
+        <v>0.05055</v>
       </c>
       <c r="M42" t="n">
         <v>0.28182</v>
       </c>
       <c r="N42" t="n">
-        <v>0.32456</v>
+        <v>0.32433</v>
       </c>
       <c r="O42" t="n">
         <v>1822322</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.162</v>
+        <v>0.1625</v>
       </c>
       <c r="G43" t="n">
-        <v>0.160254237288136</v>
+        <v>0.160227118644068</v>
       </c>
       <c r="H43" t="n">
         <v>0.506</v>
@@ -3918,13 +3918,13 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.0505</v>
+        <v>0.05055</v>
       </c>
       <c r="M43" t="n">
         <v>0.28182</v>
       </c>
       <c r="N43" t="n">
-        <v>0.32456</v>
+        <v>0.32433</v>
       </c>
       <c r="O43" t="n">
         <v>1822322</v>
@@ -4138,7 +4138,7 @@
         <v>0.015</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0211776661549422</v>
+        <v>0.0211728388644801</v>
       </c>
       <c r="H46" t="n">
         <v>0.204</v>
@@ -4215,7 +4215,7 @@
         <v>0.015</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0211776661549422</v>
+        <v>0.0211728388644801</v>
       </c>
       <c r="H47" t="n">
         <v>0.204</v>
@@ -4373,13 +4373,13 @@
         <v>2.6</v>
       </c>
       <c r="G49" t="n">
-        <v>3.09275199769269</v>
+        <v>3.17734069497775</v>
       </c>
       <c r="H49" t="n">
-        <v>9.508868482674041</v>
+        <v>10.9956903381844</v>
       </c>
       <c r="I49" t="n">
-        <v>7.00029</v>
+        <v>8.43111</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -4390,7 +4390,7 @@
         <v>4.698</v>
       </c>
       <c r="N49" t="n">
-        <v>6.77948</v>
+        <v>6.994</v>
       </c>
       <c r="O49" t="n">
         <v>1822322</v>
@@ -4454,7 +4454,7 @@
         <v>0.007</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00743180293608</v>
+        <v>0.00743636121041</v>
       </c>
       <c r="H50" t="n">
         <v>0.022</v>
@@ -4535,7 +4535,7 @@
         <v>0.007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00743180293608</v>
+        <v>0.00743636121041</v>
       </c>
       <c r="H51" t="n">
         <v>0.022</v>
@@ -5033,7 +5033,7 @@
         <v>0.00332</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0093114597511411</v>
+        <v>0.009329245857925101</v>
       </c>
       <c r="H57" t="n">
         <v>0.07283821583808039</v>
@@ -5044,7 +5044,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.00557</v>
+        <v>0.00589</v>
       </c>
       <c r="M57" t="n">
         <v>0.02165</v>
@@ -5114,7 +5114,7 @@
         <v>0.00332</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0093114597511411</v>
+        <v>0.009329245857925101</v>
       </c>
       <c r="H58" t="n">
         <v>0.07283821583808039</v>
@@ -5125,7 +5125,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.00557</v>
+        <v>0.00589</v>
       </c>
       <c r="M58" t="n">
         <v>0.02165</v>
@@ -5195,7 +5195,7 @@
         <v>0.12155</v>
       </c>
       <c r="G59" t="n">
-        <v>0.138559656376276</v>
+        <v>0.138549612291147</v>
       </c>
       <c r="H59" t="n">
         <v>0.48</v>
@@ -5276,7 +5276,7 @@
         <v>0.12155</v>
       </c>
       <c r="G60" t="n">
-        <v>0.138559656376276</v>
+        <v>0.138549612291147</v>
       </c>
       <c r="H60" t="n">
         <v>0.48</v>
@@ -5427,10 +5427,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.141</v>
+        <v>0.1409</v>
       </c>
       <c r="G62" t="n">
-        <v>0.151550933550336</v>
+        <v>0.15154501392244</v>
       </c>
       <c r="H62" t="n">
         <v>0.506</v>
@@ -5441,13 +5441,13 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.0365</v>
+        <v>0.0363</v>
       </c>
       <c r="M62" t="n">
         <v>0.2859</v>
       </c>
       <c r="N62" t="n">
-        <v>0.3244</v>
+        <v>0.32419</v>
       </c>
       <c r="O62" t="n">
         <v>1822322</v>
@@ -5504,10 +5504,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.141</v>
+        <v>0.1409</v>
       </c>
       <c r="G63" t="n">
-        <v>0.151550933550336</v>
+        <v>0.15154501392244</v>
       </c>
       <c r="H63" t="n">
         <v>0.506</v>
@@ -5518,13 +5518,13 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.0365</v>
+        <v>0.0363</v>
       </c>
       <c r="M63" t="n">
         <v>0.2859</v>
       </c>
       <c r="N63" t="n">
-        <v>0.3244</v>
+        <v>0.32419</v>
       </c>
       <c r="O63" t="n">
         <v>1822322</v>
@@ -5738,7 +5738,7 @@
         <v>0.015</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0205080383856931</v>
+        <v>0.0205032915500721</v>
       </c>
       <c r="H66" t="n">
         <v>0.204</v>
@@ -5815,7 +5815,7 @@
         <v>0.015</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0205080383856931</v>
+        <v>0.0205032915500721</v>
       </c>
       <c r="H67" t="n">
         <v>0.204</v>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5970,16 +5970,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="G69" t="n">
-        <v>3.26516794922493</v>
+        <v>3.25799599131325</v>
       </c>
       <c r="H69" t="n">
-        <v>9.508868482674041</v>
+        <v>10.9956903381844</v>
       </c>
       <c r="I69" t="n">
-        <v>8.16647</v>
+        <v>8.115869999999999</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -5990,7 +5990,7 @@
         <v>4.6</v>
       </c>
       <c r="N69" t="n">
-        <v>6.58922</v>
+        <v>6.5015</v>
       </c>
       <c r="O69" t="n">
         <v>1822322</v>
@@ -6054,7 +6054,7 @@
         <v>0.007</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0074676289630569</v>
+        <v>0.0074712787441215</v>
       </c>
       <c r="H70" t="n">
         <v>0.022</v>
@@ -6135,7 +6135,7 @@
         <v>0.007</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0074676289630569</v>
+        <v>0.0074712787441215</v>
       </c>
       <c r="H71" t="n">
         <v>0.022</v>
@@ -6216,7 +6216,7 @@
         <v>48</v>
       </c>
       <c r="G72" t="n">
-        <v>188.457670629577</v>
+        <v>188.456387604723</v>
       </c>
       <c r="H72" t="n">
         <v>1428</v>
@@ -6301,7 +6301,7 @@
         <v>48</v>
       </c>
       <c r="G73" t="n">
-        <v>188.457670629577</v>
+        <v>188.456387604723</v>
       </c>
       <c r="H73" t="n">
         <v>1428</v>
@@ -6386,7 +6386,7 @@
         <v>48</v>
       </c>
       <c r="G74" t="n">
-        <v>188.457670629577</v>
+        <v>188.456387604723</v>
       </c>
       <c r="H74" t="n">
         <v>1428</v>
@@ -6471,7 +6471,7 @@
         <v>48</v>
       </c>
       <c r="G75" t="n">
-        <v>188.457670629577</v>
+        <v>188.456387604723</v>
       </c>
       <c r="H75" t="n">
         <v>1428</v>
@@ -6630,10 +6630,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00268</v>
+        <v>0.00271</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0076390677088291</v>
+        <v>0.0076704593236793</v>
       </c>
       <c r="H77" t="n">
         <v>0.07283821583808039</v>
@@ -6711,10 +6711,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00268</v>
+        <v>0.00271</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0076390677088291</v>
+        <v>0.0076704593236793</v>
       </c>
       <c r="H78" t="n">
         <v>0.07283821583808039</v>
@@ -6795,7 +6795,7 @@
         <v>0.11075</v>
       </c>
       <c r="G79" t="n">
-        <v>0.125195821454448</v>
+        <v>0.125180048324169</v>
       </c>
       <c r="H79" t="n">
         <v>0.3189</v>
@@ -6876,7 +6876,7 @@
         <v>0.11075</v>
       </c>
       <c r="G80" t="n">
-        <v>0.125195821454448</v>
+        <v>0.125180048324169</v>
       </c>
       <c r="H80" t="n">
         <v>0.3189</v>
@@ -7027,21 +7027,21 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.118</v>
+        <v>0.1179</v>
       </c>
       <c r="G82" t="n">
-        <v>0.136384266883669</v>
+        <v>0.136378347255773</v>
       </c>
       <c r="H82" t="n">
-        <v>0.364</v>
+        <v>0.3643</v>
       </c>
       <c r="I82" t="n">
-        <v>0.324</v>
+        <v>0.32385</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.029</v>
+        <v>0.02875</v>
       </c>
       <c r="M82" t="n">
         <v>0.2762</v>
@@ -7104,21 +7104,21 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.118</v>
+        <v>0.1179</v>
       </c>
       <c r="G83" t="n">
-        <v>0.136384266883669</v>
+        <v>0.136378347255773</v>
       </c>
       <c r="H83" t="n">
-        <v>0.364</v>
+        <v>0.3643</v>
       </c>
       <c r="I83" t="n">
-        <v>0.324</v>
+        <v>0.32385</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.029</v>
+        <v>0.02875</v>
       </c>
       <c r="M83" t="n">
         <v>0.2762</v>
@@ -7573,13 +7573,13 @@
         <v>2.6</v>
       </c>
       <c r="G89" t="n">
-        <v>2.95716143763863</v>
+        <v>3.00684253198543</v>
       </c>
       <c r="H89" t="n">
-        <v>9.508868482674041</v>
+        <v>10.9956903381844</v>
       </c>
       <c r="I89" t="n">
-        <v>8.08863</v>
+        <v>8.02116</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -7590,7 +7590,7 @@
         <v>4.6</v>
       </c>
       <c r="N89" t="n">
-        <v>6.56177</v>
+        <v>6.50104</v>
       </c>
       <c r="O89" t="n">
         <v>1822322</v>
@@ -7654,7 +7654,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>0.008215261847762501</v>
+        <v>0.008215979978896899</v>
       </c>
       <c r="H90" t="n">
         <v>0.022</v>
@@ -7735,7 +7735,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>0.008215261847762501</v>
+        <v>0.008215979978896899</v>
       </c>
       <c r="H91" t="n">
         <v>0.022</v>
@@ -7816,7 +7816,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="n">
-        <v>201.363732843638</v>
+        <v>201.362428072599</v>
       </c>
       <c r="H92" t="n">
         <v>1500</v>
@@ -7901,7 +7901,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="n">
-        <v>201.363732843638</v>
+        <v>201.362428072599</v>
       </c>
       <c r="H93" t="n">
         <v>1500</v>
@@ -7986,7 +7986,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="n">
-        <v>201.363732843638</v>
+        <v>201.362428072599</v>
       </c>
       <c r="H94" t="n">
         <v>1500</v>
@@ -8071,7 +8071,7 @@
         <v>44</v>
       </c>
       <c r="G95" t="n">
-        <v>201.363732843638</v>
+        <v>201.362428072599</v>
       </c>
       <c r="H95" t="n">
         <v>1500</v>
@@ -8230,10 +8230,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.00221</v>
+        <v>0.00226</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0053186859804295</v>
+        <v>0.0053598266055828</v>
       </c>
       <c r="H97" t="n">
         <v>0.07283821583808039</v>
@@ -8244,10 +8244,10 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00248</v>
+        <v>0.00251</v>
       </c>
       <c r="M97" t="n">
-        <v>0.00502</v>
+        <v>0.00517</v>
       </c>
       <c r="N97" t="n">
         <v>0.01935</v>
@@ -8311,10 +8311,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.00221</v>
+        <v>0.00226</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0053186859804295</v>
+        <v>0.0053598266055828</v>
       </c>
       <c r="H98" t="n">
         <v>0.07283821583808039</v>
@@ -8325,10 +8325,10 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00248</v>
+        <v>0.00251</v>
       </c>
       <c r="M98" t="n">
-        <v>0.00502</v>
+        <v>0.00517</v>
       </c>
       <c r="N98" t="n">
         <v>0.01935</v>
@@ -8395,7 +8395,7 @@
         <v>0.11515</v>
       </c>
       <c r="G99" t="n">
-        <v>0.122029154787782</v>
+        <v>0.122013381657502</v>
       </c>
       <c r="H99" t="n">
         <v>0.3189</v>
@@ -8476,7 +8476,7 @@
         <v>0.11515</v>
       </c>
       <c r="G100" t="n">
-        <v>0.122029154787782</v>
+        <v>0.122013381657502</v>
       </c>
       <c r="H100" t="n">
         <v>0.3189</v>
@@ -8627,21 +8627,21 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.1215</v>
+        <v>0.12155</v>
       </c>
       <c r="G102" t="n">
-        <v>0.131900933550336</v>
+        <v>0.13189501392244</v>
       </c>
       <c r="H102" t="n">
-        <v>0.364</v>
+        <v>0.3643</v>
       </c>
       <c r="I102" t="n">
-        <v>0.32</v>
+        <v>0.31985</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.029</v>
+        <v>0.02875</v>
       </c>
       <c r="M102" t="n">
         <v>0.248</v>
@@ -8704,21 +8704,21 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.1215</v>
+        <v>0.12155</v>
       </c>
       <c r="G103" t="n">
-        <v>0.131900933550336</v>
+        <v>0.13189501392244</v>
       </c>
       <c r="H103" t="n">
-        <v>0.364</v>
+        <v>0.3643</v>
       </c>
       <c r="I103" t="n">
-        <v>0.32</v>
+        <v>0.31985</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.029</v>
+        <v>0.02875</v>
       </c>
       <c r="M103" t="n">
         <v>0.248</v>
@@ -9173,13 +9173,13 @@
         <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>2.45921942870022</v>
+        <v>2.5000272217883</v>
       </c>
       <c r="H109" t="n">
-        <v>8.454704338951499</v>
+        <v>10.9956903381844</v>
       </c>
       <c r="I109" t="n">
-        <v>6.77452</v>
+        <v>6.50462</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -9254,7 +9254,7 @@
         <v>0.008</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0080464407813011</v>
+        <v>0.0080473301581393</v>
       </c>
       <c r="H110" t="n">
         <v>0.022</v>
@@ -9335,7 +9335,7 @@
         <v>0.008</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0080464407813011</v>
+        <v>0.0080473301581393</v>
       </c>
       <c r="H111" t="n">
         <v>0.022</v>
@@ -9416,7 +9416,7 @@
         <v>80</v>
       </c>
       <c r="G112" t="n">
-        <v>229.956953182621</v>
+        <v>229.955648411583</v>
       </c>
       <c r="H112" t="n">
         <v>1500</v>
@@ -9501,7 +9501,7 @@
         <v>80</v>
       </c>
       <c r="G113" t="n">
-        <v>229.956953182621</v>
+        <v>229.955648411583</v>
       </c>
       <c r="H113" t="n">
         <v>1500</v>
@@ -9586,7 +9586,7 @@
         <v>80</v>
       </c>
       <c r="G114" t="n">
-        <v>229.956953182621</v>
+        <v>229.955648411583</v>
       </c>
       <c r="H114" t="n">
         <v>1500</v>
@@ -9671,7 +9671,7 @@
         <v>80</v>
       </c>
       <c r="G115" t="n">
-        <v>229.956953182621</v>
+        <v>229.955648411583</v>
       </c>
       <c r="H115" t="n">
         <v>1500</v>
@@ -9830,10 +9830,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.00228</v>
+        <v>0.00232</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0063448804931353</v>
+        <v>0.0063986259826364</v>
       </c>
       <c r="H117" t="n">
         <v>0.07283821583808039</v>
@@ -9847,7 +9847,7 @@
         <v>0.00291</v>
       </c>
       <c r="M117" t="n">
-        <v>0.00563</v>
+        <v>0.00594</v>
       </c>
       <c r="N117" t="n">
         <v>0.02735</v>
@@ -9911,10 +9911,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.00228</v>
+        <v>0.00232</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0063448804931353</v>
+        <v>0.0063986259826364</v>
       </c>
       <c r="H118" t="n">
         <v>0.07283821583808039</v>
@@ -9928,7 +9928,7 @@
         <v>0.00291</v>
       </c>
       <c r="M118" t="n">
-        <v>0.00563</v>
+        <v>0.00594</v>
       </c>
       <c r="N118" t="n">
         <v>0.02735</v>
@@ -9995,7 +9995,7 @@
         <v>0.12255</v>
       </c>
       <c r="G119" t="n">
-        <v>0.128582488121115</v>
+        <v>0.128566714990835</v>
       </c>
       <c r="H119" t="n">
         <v>0.3189</v>
@@ -10076,7 +10076,7 @@
         <v>0.12255</v>
       </c>
       <c r="G120" t="n">
-        <v>0.128582488121115</v>
+        <v>0.128566714990835</v>
       </c>
       <c r="H120" t="n">
         <v>0.3189</v>
@@ -10230,10 +10230,10 @@
         <v>0.135</v>
       </c>
       <c r="G122" t="n">
-        <v>0.138467600217003</v>
+        <v>0.138463347255773</v>
       </c>
       <c r="H122" t="n">
-        <v>0.364</v>
+        <v>0.3643</v>
       </c>
       <c r="I122" t="n">
         <v>0.315</v>
@@ -10307,10 +10307,10 @@
         <v>0.135</v>
       </c>
       <c r="G123" t="n">
-        <v>0.138467600217003</v>
+        <v>0.138463347255773</v>
       </c>
       <c r="H123" t="n">
-        <v>0.364</v>
+        <v>0.3643</v>
       </c>
       <c r="I123" t="n">
         <v>0.315</v>
@@ -10773,13 +10773,13 @@
         <v>1.6</v>
       </c>
       <c r="G129" t="n">
-        <v>2.21504998508442</v>
+        <v>2.25370999958892</v>
       </c>
       <c r="H129" t="n">
-        <v>8.454704338951499</v>
+        <v>10.9956903381844</v>
       </c>
       <c r="I129" t="n">
-        <v>6.72304</v>
+        <v>6.50376</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -10854,7 +10854,7 @@
         <v>0.008</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0077886894136339</v>
+        <v>0.0077896169598318</v>
       </c>
       <c r="H130" t="n">
         <v>0.018</v>
@@ -10935,7 +10935,7 @@
         <v>0.008</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0077886894136339</v>
+        <v>0.0077896169598318</v>
       </c>
       <c r="H131" t="n">
         <v>0.018</v>
@@ -11016,7 +11016,7 @@
         <v>80</v>
       </c>
       <c r="G132" t="n">
-        <v>237.38068199618</v>
+        <v>237.379377225142</v>
       </c>
       <c r="H132" t="n">
         <v>1700</v>
@@ -11101,7 +11101,7 @@
         <v>80</v>
       </c>
       <c r="G133" t="n">
-        <v>237.38068199618</v>
+        <v>237.379377225142</v>
       </c>
       <c r="H133" t="n">
         <v>1700</v>
@@ -11186,7 +11186,7 @@
         <v>80</v>
       </c>
       <c r="G134" t="n">
-        <v>237.38068199618</v>
+        <v>237.379377225142</v>
       </c>
       <c r="H134" t="n">
         <v>1700</v>
@@ -11271,7 +11271,7 @@
         <v>80</v>
       </c>
       <c r="G135" t="n">
-        <v>237.38068199618</v>
+        <v>237.379377225142</v>
       </c>
       <c r="H135" t="n">
         <v>1700</v>
@@ -11430,10 +11430,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.00303</v>
+        <v>0.00308</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0065749094024747</v>
+        <v>0.0066392089726223</v>
       </c>
       <c r="H137" t="n">
         <v>0.07283821583808039</v>
@@ -11444,13 +11444,13 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.00415</v>
+        <v>0.00429</v>
       </c>
       <c r="M137" t="n">
-        <v>0.00727</v>
+        <v>0.00733</v>
       </c>
       <c r="N137" t="n">
-        <v>0.01578</v>
+        <v>0.01596</v>
       </c>
       <c r="O137" t="n">
         <v>1822322</v>
@@ -11511,10 +11511,10 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.00303</v>
+        <v>0.00308</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0065749094024747</v>
+        <v>0.0066392089726223</v>
       </c>
       <c r="H138" t="n">
         <v>0.07283821583808039</v>
@@ -11525,13 +11525,13 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>0.00415</v>
+        <v>0.00429</v>
       </c>
       <c r="M138" t="n">
-        <v>0.00727</v>
+        <v>0.00733</v>
       </c>
       <c r="N138" t="n">
-        <v>0.01578</v>
+        <v>0.01596</v>
       </c>
       <c r="O138" t="n">
         <v>1822322</v>
@@ -11595,7 +11595,7 @@
         <v>0.12255</v>
       </c>
       <c r="G139" t="n">
-        <v>0.131798769404143</v>
+        <v>0.131776113680772</v>
       </c>
       <c r="H139" t="n">
         <v>0.3189</v>
@@ -11676,7 +11676,7 @@
         <v>0.12255</v>
       </c>
       <c r="G140" t="n">
-        <v>0.131798769404143</v>
+        <v>0.131776113680772</v>
       </c>
       <c r="H140" t="n">
         <v>0.3189</v>
@@ -11830,10 +11830,10 @@
         <v>0.135</v>
       </c>
       <c r="G142" t="n">
-        <v>0.141717600217003</v>
+        <v>0.14173001392244</v>
       </c>
       <c r="H142" t="n">
-        <v>0.364</v>
+        <v>0.3643</v>
       </c>
       <c r="I142" t="n">
         <v>0.32</v>
@@ -11907,10 +11907,10 @@
         <v>0.135</v>
       </c>
       <c r="G143" t="n">
-        <v>0.141717600217003</v>
+        <v>0.14173001392244</v>
       </c>
       <c r="H143" t="n">
-        <v>0.364</v>
+        <v>0.3643</v>
       </c>
       <c r="I143" t="n">
         <v>0.32</v>
@@ -12373,10 +12373,10 @@
         <v>1.6</v>
       </c>
       <c r="G149" t="n">
-        <v>1.80704829176699</v>
+        <v>1.77224606497114</v>
       </c>
       <c r="H149" t="n">
-        <v>8.454704338951499</v>
+        <v>6.50577963838392</v>
       </c>
       <c r="I149" t="n">
         <v>4.1</v>
@@ -12454,7 +12454,7 @@
         <v>0.007</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0073274807596277</v>
+        <v>0.0073284240269476</v>
       </c>
       <c r="H150" t="n">
         <v>0.018</v>
@@ -12535,7 +12535,7 @@
         <v>0.007</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0073274807596277</v>
+        <v>0.0073284240269476</v>
       </c>
       <c r="H151" t="n">
         <v>0.018</v>
@@ -12616,7 +12616,7 @@
         <v>80</v>
       </c>
       <c r="G152" t="n">
-        <v>264.473452375425</v>
+        <v>264.472125108334</v>
       </c>
       <c r="H152" t="n">
         <v>3500</v>
@@ -12701,7 +12701,7 @@
         <v>80</v>
       </c>
       <c r="G153" t="n">
-        <v>264.473452375425</v>
+        <v>264.472125108334</v>
       </c>
       <c r="H153" t="n">
         <v>3500</v>
@@ -12786,7 +12786,7 @@
         <v>80</v>
       </c>
       <c r="G154" t="n">
-        <v>264.473452375425</v>
+        <v>264.472125108334</v>
       </c>
       <c r="H154" t="n">
         <v>3500</v>
@@ -12871,7 +12871,7 @@
         <v>80</v>
       </c>
       <c r="G155" t="n">
-        <v>264.473452375425</v>
+        <v>264.472125108334</v>
       </c>
       <c r="H155" t="n">
         <v>3500</v>
@@ -13030,16 +13030,16 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.00324</v>
+        <v>0.0033</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0046742356147278</v>
+        <v>0.0047270283024388</v>
       </c>
       <c r="H157" t="n">
         <v>0.0329036463299975</v>
       </c>
       <c r="I157" t="n">
-        <v>0.0143</v>
+        <v>0.01438</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -13047,10 +13047,10 @@
         <v>0.0046</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0062</v>
+        <v>0.00621</v>
       </c>
       <c r="N157" t="n">
-        <v>0.01338</v>
+        <v>0.01342</v>
       </c>
       <c r="O157" t="n">
         <v>1822322</v>
@@ -13111,16 +13111,16 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.00324</v>
+        <v>0.0033</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0046742356147278</v>
+        <v>0.0047270283024388</v>
       </c>
       <c r="H158" t="n">
         <v>0.0329036463299975</v>
       </c>
       <c r="I158" t="n">
-        <v>0.0143</v>
+        <v>0.01438</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -13128,10 +13128,10 @@
         <v>0.0046</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0062</v>
+        <v>0.00621</v>
       </c>
       <c r="N158" t="n">
-        <v>0.01338</v>
+        <v>0.01342</v>
       </c>
       <c r="O158" t="n">
         <v>1822322</v>
@@ -13195,7 +13195,7 @@
         <v>0.121</v>
       </c>
       <c r="G159" t="n">
-        <v>0.129562670575929</v>
+        <v>0.12954166531993</v>
       </c>
       <c r="H159" t="n">
         <v>0.317</v>
@@ -13276,7 +13276,7 @@
         <v>0.121</v>
       </c>
       <c r="G160" t="n">
-        <v>0.129562670575929</v>
+        <v>0.12954166531993</v>
       </c>
       <c r="H160" t="n">
         <v>0.317</v>
@@ -13430,13 +13430,13 @@
         <v>0.125</v>
       </c>
       <c r="G162" t="n">
-        <v>0.137694915254237</v>
+        <v>0.137703389830508</v>
       </c>
       <c r="H162" t="n">
         <v>0.325</v>
       </c>
       <c r="I162" t="n">
-        <v>0.31775</v>
+        <v>0.31802</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -13507,13 +13507,13 @@
         <v>0.125</v>
       </c>
       <c r="G163" t="n">
-        <v>0.137694915254237</v>
+        <v>0.137703389830508</v>
       </c>
       <c r="H163" t="n">
         <v>0.325</v>
       </c>
       <c r="I163" t="n">
-        <v>0.31775</v>
+        <v>0.31802</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -14054,7 +14054,7 @@
         <v>0.007</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0072441636263099</v>
+        <v>0.0072443765907812</v>
       </c>
       <c r="H170" t="n">
         <v>0.018</v>
@@ -14135,7 +14135,7 @@
         <v>0.007</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0072441636263099</v>
+        <v>0.0072443765907812</v>
       </c>
       <c r="H171" t="n">
         <v>0.018</v>
@@ -14630,16 +14630,16 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.00303</v>
+        <v>0.00308</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0047192447962027</v>
+        <v>0.0047541016515467</v>
       </c>
       <c r="H177" t="n">
         <v>0.0329036463299975</v>
       </c>
       <c r="I177" t="n">
-        <v>0.0143</v>
+        <v>0.01438</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -14650,7 +14650,7 @@
         <v>0.00621</v>
       </c>
       <c r="N177" t="n">
-        <v>0.01338</v>
+        <v>0.01342</v>
       </c>
       <c r="O177" t="n">
         <v>1822322</v>
@@ -14711,16 +14711,16 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.00303</v>
+        <v>0.00308</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0047192447962027</v>
+        <v>0.0047541016515467</v>
       </c>
       <c r="H178" t="n">
         <v>0.0329036463299975</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0143</v>
+        <v>0.01438</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -14731,7 +14731,7 @@
         <v>0.00621</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01338</v>
+        <v>0.01342</v>
       </c>
       <c r="O178" t="n">
         <v>1822322</v>
@@ -14795,7 +14795,7 @@
         <v>0.113</v>
       </c>
       <c r="G179" t="n">
-        <v>0.120746231513381</v>
+        <v>0.120731052404993</v>
       </c>
       <c r="H179" t="n">
         <v>0.317</v>
@@ -14876,7 +14876,7 @@
         <v>0.113</v>
       </c>
       <c r="G180" t="n">
-        <v>0.120746231513381</v>
+        <v>0.120731052404993</v>
       </c>
       <c r="H180" t="n">
         <v>0.317</v>
@@ -15030,7 +15030,7 @@
         <v>0.125</v>
       </c>
       <c r="G182" t="n">
-        <v>0.12864406779661</v>
+        <v>0.128661016949153</v>
       </c>
       <c r="H182" t="n">
         <v>0.325</v>
@@ -15107,7 +15107,7 @@
         <v>0.125</v>
       </c>
       <c r="G183" t="n">
-        <v>0.12864406779661</v>
+        <v>0.128661016949153</v>
       </c>
       <c r="H183" t="n">
         <v>0.325</v>
@@ -15654,7 +15654,7 @@
         <v>0.007</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0078543331178353</v>
+        <v>0.007854546082306599</v>
       </c>
       <c r="H190" t="n">
         <v>0.018</v>
@@ -15735,7 +15735,7 @@
         <v>0.007</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0078543331178353</v>
+        <v>0.007854546082306599</v>
       </c>
       <c r="H191" t="n">
         <v>0.018</v>
@@ -15816,7 +15816,7 @@
         <v>110</v>
       </c>
       <c r="G192" t="n">
-        <v>272.019567801987</v>
+        <v>272.017532240223</v>
       </c>
       <c r="H192" t="n">
         <v>3500</v>
@@ -15901,7 +15901,7 @@
         <v>110</v>
       </c>
       <c r="G193" t="n">
-        <v>272.019567801987</v>
+        <v>272.017532240223</v>
       </c>
       <c r="H193" t="n">
         <v>3500</v>
@@ -15986,7 +15986,7 @@
         <v>110</v>
       </c>
       <c r="G194" t="n">
-        <v>272.019567801987</v>
+        <v>272.017532240223</v>
       </c>
       <c r="H194" t="n">
         <v>3500</v>
@@ -16071,7 +16071,7 @@
         <v>110</v>
       </c>
       <c r="G195" t="n">
-        <v>272.019567801987</v>
+        <v>272.017532240223</v>
       </c>
       <c r="H195" t="n">
         <v>3500</v>
@@ -16230,16 +16230,16 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.00422</v>
+        <v>0.00426</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0053466302492662</v>
+        <v>0.0053686271818677</v>
       </c>
       <c r="H197" t="n">
         <v>0.0329036463299975</v>
       </c>
       <c r="I197" t="n">
-        <v>0.0143</v>
+        <v>0.01438</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -16247,10 +16247,10 @@
         <v>0.00534</v>
       </c>
       <c r="M197" t="n">
-        <v>0.00749</v>
+        <v>0.00761</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01338</v>
+        <v>0.01342</v>
       </c>
       <c r="O197" t="n">
         <v>1822322</v>
@@ -16311,16 +16311,16 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.00422</v>
+        <v>0.00426</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0053466302492662</v>
+        <v>0.0053686271818677</v>
       </c>
       <c r="H198" t="n">
         <v>0.0329036463299975</v>
       </c>
       <c r="I198" t="n">
-        <v>0.0143</v>
+        <v>0.01438</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -16328,10 +16328,10 @@
         <v>0.00534</v>
       </c>
       <c r="M198" t="n">
-        <v>0.00749</v>
+        <v>0.00761</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01338</v>
+        <v>0.01342</v>
       </c>
       <c r="O198" t="n">
         <v>1822322</v>
@@ -16395,7 +16395,7 @@
         <v>0.077</v>
       </c>
       <c r="G199" t="n">
-        <v>0.112000468801517</v>
+        <v>0.111985289693128</v>
       </c>
       <c r="H199" t="n">
         <v>0.318</v>
@@ -16476,7 +16476,7 @@
         <v>0.077</v>
       </c>
       <c r="G200" t="n">
-        <v>0.112000468801517</v>
+        <v>0.111985289693128</v>
       </c>
       <c r="H200" t="n">
         <v>0.318</v>
@@ -16630,13 +16630,13 @@
         <v>0.081</v>
       </c>
       <c r="G202" t="n">
-        <v>0.119237288135593</v>
+        <v>0.119254237288136</v>
       </c>
       <c r="H202" t="n">
         <v>0.325</v>
       </c>
       <c r="I202" t="n">
-        <v>0.31775</v>
+        <v>0.31802</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
@@ -16707,13 +16707,13 @@
         <v>0.081</v>
       </c>
       <c r="G203" t="n">
-        <v>0.119237288135593</v>
+        <v>0.119254237288136</v>
       </c>
       <c r="H203" t="n">
         <v>0.325</v>
       </c>
       <c r="I203" t="n">
-        <v>0.31775</v>
+        <v>0.31802</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -17066,6 +17066,1606 @@
         </is>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.5092</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.5483</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.36422222222222</v>
+      </c>
+      <c r="H209" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2.3755</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2.935</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.0076531730186703</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.01047</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.01478</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.0076531730186703</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.01047</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.01478</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>68</v>
+      </c>
+      <c r="G212" t="n">
+        <v>269.763294952087</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1673.9</v>
+      </c>
+      <c r="J212" t="n">
+        <v>10.1694915254237</v>
+      </c>
+      <c r="K212" t="n">
+        <v>18.6440677966102</v>
+      </c>
+      <c r="L212" t="n">
+        <v>146</v>
+      </c>
+      <c r="M212" t="n">
+        <v>280</v>
+      </c>
+      <c r="N212" t="n">
+        <v>761.76</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>68</v>
+      </c>
+      <c r="G213" t="n">
+        <v>269.763294952087</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1673.9</v>
+      </c>
+      <c r="J213" t="n">
+        <v>10.1694915254237</v>
+      </c>
+      <c r="K213" t="n">
+        <v>18.6440677966102</v>
+      </c>
+      <c r="L213" t="n">
+        <v>146</v>
+      </c>
+      <c r="M213" t="n">
+        <v>280</v>
+      </c>
+      <c r="N213" t="n">
+        <v>761.76</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>68</v>
+      </c>
+      <c r="G214" t="n">
+        <v>269.763294952087</v>
+      </c>
+      <c r="H214" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1673.9</v>
+      </c>
+      <c r="J214" t="n">
+        <v>10.1694915254237</v>
+      </c>
+      <c r="K214" t="n">
+        <v>18.6440677966102</v>
+      </c>
+      <c r="L214" t="n">
+        <v>146</v>
+      </c>
+      <c r="M214" t="n">
+        <v>280</v>
+      </c>
+      <c r="N214" t="n">
+        <v>761.76</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>68</v>
+      </c>
+      <c r="G215" t="n">
+        <v>269.763294952087</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1673.9</v>
+      </c>
+      <c r="J215" t="n">
+        <v>10.1694915254237</v>
+      </c>
+      <c r="K215" t="n">
+        <v>18.6440677966102</v>
+      </c>
+      <c r="L215" t="n">
+        <v>146</v>
+      </c>
+      <c r="M215" t="n">
+        <v>280</v>
+      </c>
+      <c r="N215" t="n">
+        <v>761.76</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>120</v>
+      </c>
+      <c r="G216" t="n">
+        <v>119.244</v>
+      </c>
+      <c r="H216" t="n">
+        <v>121.82</v>
+      </c>
+      <c r="I216" t="n">
+        <v>121.82</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>120</v>
+      </c>
+      <c r="M216" t="n">
+        <v>121.533</v>
+      </c>
+      <c r="N216" t="n">
+        <v>121.82</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.00358</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.0043892510284489</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.0144045638493606</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.01296</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.00439</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.00695</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.00358</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.0043892510284489</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.0144045638493606</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.01296</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.00439</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.00695</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.102188679523637</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.30285</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.19776</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.25934</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.102188679523637</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.30285</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.19776</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.25934</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="G221" t="n">
+        <v>6.5382</v>
+      </c>
+      <c r="H221" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="I221" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="M221" t="n">
+        <v>6.8395</v>
+      </c>
+      <c r="N221" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.109016949152542</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.30947</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.19829</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.27802</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.109016949152542</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.30947</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.19829</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.27802</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.282372881355932</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.4895</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.282372881355932</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.4895</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.0374406779661017</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.07825</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.03347</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.04034</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.0374406779661017</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.07825</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.03347</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.04034</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
+++ b/state_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2171</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2.58814166337763</v>
+        <v>2.6017332646955</v>
       </c>
       <c r="H10" t="n">
-        <v>9.988026750645069</v>
+        <v>9.679730918810881</v>
       </c>
       <c r="I10" t="n">
-        <v>6.38771</v>
+        <v>6.9158</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1267,7 +1267,7 @@
         <v>4.2</v>
       </c>
       <c r="N10" t="n">
-        <v>5.17022</v>
+        <v>5.212</v>
       </c>
       <c r="O10" t="n">
         <v>1822322</v>
@@ -2773,13 +2773,13 @@
         <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.79281110775758</v>
+        <v>2.80666921106208</v>
       </c>
       <c r="H29" t="n">
-        <v>9.988026750645069</v>
+        <v>9.679730918810881</v>
       </c>
       <c r="I29" t="n">
-        <v>6.39386</v>
+        <v>6.94446</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -2790,7 +2790,7 @@
         <v>4.466</v>
       </c>
       <c r="N29" t="n">
-        <v>5.42038</v>
+        <v>5.472</v>
       </c>
       <c r="O29" t="n">
         <v>1822322</v>
@@ -4370,16 +4370,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="G49" t="n">
-        <v>3.17734069497775</v>
+        <v>3.10346194183219</v>
       </c>
       <c r="H49" t="n">
-        <v>10.9956903381844</v>
+        <v>9.679730918810881</v>
       </c>
       <c r="I49" t="n">
-        <v>8.43111</v>
+        <v>7.12992</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -4390,7 +4390,7 @@
         <v>4.698</v>
       </c>
       <c r="N49" t="n">
-        <v>6.994</v>
+        <v>6.62301</v>
       </c>
       <c r="O49" t="n">
         <v>1822322</v>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5970,16 +5970,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="G69" t="n">
-        <v>3.25799599131325</v>
+        <v>3.27295203858361</v>
       </c>
       <c r="H69" t="n">
-        <v>10.9956903381844</v>
+        <v>10.2893235380186</v>
       </c>
       <c r="I69" t="n">
-        <v>8.115869999999999</v>
+        <v>8.115</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -5990,7 +5990,7 @@
         <v>4.6</v>
       </c>
       <c r="N69" t="n">
-        <v>6.5015</v>
+        <v>6.426</v>
       </c>
       <c r="O69" t="n">
         <v>1822322</v>
@@ -7573,13 +7573,13 @@
         <v>2.6</v>
       </c>
       <c r="G89" t="n">
-        <v>3.00684253198543</v>
+        <v>2.98560014092165</v>
       </c>
       <c r="H89" t="n">
-        <v>10.9956903381844</v>
+        <v>10.2893235380186</v>
       </c>
       <c r="I89" t="n">
-        <v>8.02116</v>
+        <v>8.02</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -7590,7 +7590,7 @@
         <v>4.6</v>
       </c>
       <c r="N89" t="n">
-        <v>6.50104</v>
+        <v>6.418</v>
       </c>
       <c r="O89" t="n">
         <v>1822322</v>
@@ -9173,13 +9173,13 @@
         <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>2.5000272217883</v>
+        <v>2.48449401279552</v>
       </c>
       <c r="H109" t="n">
-        <v>10.9956903381844</v>
+        <v>10.2893235380186</v>
       </c>
       <c r="I109" t="n">
-        <v>6.50462</v>
+        <v>6.47467</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -9190,7 +9190,7 @@
         <v>4.2</v>
       </c>
       <c r="N109" t="n">
-        <v>6.09</v>
+        <v>6.0672</v>
       </c>
       <c r="O109" t="n">
         <v>1822322</v>
@@ -10773,13 +10773,13 @@
         <v>1.6</v>
       </c>
       <c r="G129" t="n">
-        <v>2.25370999958892</v>
+        <v>2.23899432791155</v>
       </c>
       <c r="H129" t="n">
-        <v>10.9956903381844</v>
+        <v>10.2893235380186</v>
       </c>
       <c r="I129" t="n">
-        <v>6.50376</v>
+        <v>6.45567</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -12373,10 +12373,10 @@
         <v>1.6</v>
       </c>
       <c r="G149" t="n">
-        <v>1.77224606497114</v>
+        <v>1.83980934889319</v>
       </c>
       <c r="H149" t="n">
-        <v>6.50577963838392</v>
+        <v>10.2893235380186</v>
       </c>
       <c r="I149" t="n">
         <v>4.1</v>
